--- a/docs/odh/shr-core-ProcedureRequest.xlsx
+++ b/docs/odh/shr-core-ProcedureRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="418">
   <si>
     <t>Path</t>
   </si>
@@ -216,7 +216,171 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>ProcedureRequest.meta.id</t>
+    <t>ProcedureRequest.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>recipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Recipient-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Who this request is being addressed to.</t>
+  </si>
+  <si>
+    <t>communicationmethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CommunicationMethod-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>This is the method the provider used to communicate. Examples include: Written, Telephoned, Verbal, Electronically Entered, Policy, Service Correction, Duplicate, etc. 'Code indicating the origin of the prescription.' - NCPDP Telecommunication (Field 419-DJ, Data Dictionary 201104). Possible values include: Written; Telephone; Electronic; Facsimile; Pharmacy; Not Known.</t>
+  </si>
+  <si>
+    <t>partof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.extension.id</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
@@ -232,1098 +396,852 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>ProcedureRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
+</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>A procedure that has been performed.</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Method-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The technique used to carry out an action, for example, the specific imaging technical or assessment vehicle.</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>ORC.2, ORC.3</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocol
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ActivityDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/PlanDefinition]]}
+</t>
+  </si>
+  <si>
+    <t>Protocol or definition</t>
+  </si>
+  <si>
+    <t>Protocol or definition followed by this request.</t>
+  </si>
+  <si>
+    <t>Request.definition</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+</t>
+  </si>
+  <si>
+    <t>What request fulfills</t>
+  </si>
+  <si>
+    <t>Plan/proposal/order fulfilled by this request.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>ORC.8 (plus others)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.replaces</t>
+  </si>
+  <si>
+    <t>What request replaces</t>
+  </si>
+  <si>
+    <t>The request takes the place of the referenced completed or terminated request(s).</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RPLC].target</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.requisition</t>
+  </si>
+  <si>
+    <t>grouperId
+groupIdentifier</t>
+  </si>
+  <si>
+    <t>Composite Request ID</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all procedure or diagnostic requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>ORC.4</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.status</t>
+  </si>
+  <si>
+    <t>draft | active | suspended | completed | entered-in-error | cancelled</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
+  </si>
+  <si>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.
+This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a procedure or diagnostic order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>ORC.5</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Action.currentStatus</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | order +</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>The kind of procedure or diagnostic request</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the ProcedureRequest should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Identifies the level of importance to be assigned to actioning the request</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>TQ1.9</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>True if procedure should not be performed</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a [modifier](conformance-rules.html#isModifier.html) because it indicates that a procedure shouldn't happen, instead of a request for it to happen.  In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ProcedureRequest.code and ProcedureRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
+  </si>
+  <si>
+    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
+  </si>
+  <si>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
+  </si>
+  <si>
+    <t>.actionNegationInd</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Classification of procedure</t>
+  </si>
+  <si>
+    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what procedure request are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Classification of the procedure</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.code</t>
+  </si>
+  <si>
+    <t>What is being requested/ordered</t>
+  </si>
+  <si>
+    <t>A code that identifies a particular procedure, diagnostic investigation, or panel of investigations, that have been requested.</t>
+  </si>
+  <si>
+    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test ordeer name, for example,  serum or serum/plasma glucose, or a chest xray. The specimen may not be recorded separately from the test code.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
+  </si>
+  <si>
+    <t>Request.code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>Procedure.procedureCode</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group]]}
+</t>
+  </si>
+  <si>
+    <t>Individual the service is ordered for</t>
+  </si>
+  <si>
+    <t>On whom or what the procedure or diagnostic is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
+  </si>
+  <si>
+    <t>Request.subject</t>
+  </si>
+  <si>
+    <t>Accompanying PID segment</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.subject</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encounter
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+</t>
+  </si>
+  <si>
+    <t>Encounter or Episode during which request was created</t>
+  </si>
+  <si>
+    <t>An encounter or episode of care that provides additional information about the healthcare context in which this request is made.</t>
+  </si>
+  <si>
+    <t>Request.context</t>
+  </si>
+  <si>
+    <t>Accompanying PV1</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.encounter</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule
+</t>
+  </si>
+  <si>
+    <t>dateTime {[]} {[]}
+Period {[]} {[]}Timing {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Timing]]} {[]}</t>
+  </si>
+  <si>
+    <t>When procedure should occur</t>
+  </si>
+  <si>
+    <t>The date/time at which the diagnostic testing should occur.</t>
+  </si>
+  <si>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>Accompanying TQ1/TQ2 segments</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>when.planned</t>
+  </si>
+  <si>
+    <t>Procedure.procedureSchedule</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean {[]} {[]}
+CodeableConcept {[]} {[]}</t>
+  </si>
+  <si>
+    <t>Preconditions for procedure or diagnostic</t>
+  </si>
+  <si>
+    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the procedure.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
+  </si>
+  <si>
+    <t>Proposal.prnReason.reason</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedOn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Date request signed</t>
+  </si>
+  <si>
+    <t>When the request transitioned to being actionable.</t>
+  </si>
+  <si>
+    <t>Request.authoredOn</t>
+  </si>
+  <si>
+    <t>ORC.9</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>Proposal.proposedAtTime</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.requester</t>
+  </si>
+  <si>
+    <t>author
+orderer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Who/what is requesting procedure or diagnostic</t>
+  </si>
+  <si>
+    <t>The individual who initiated the request and has responsibility for its activation.</t>
+  </si>
+  <si>
+    <t>This not the dispatcher, but rather who is the authorizer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>ORC.12</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.statementAuthor</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.requester.id</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>ProcedureRequest.meta.extension</t>
+    <t>ProcedureRequest.requester.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.requester.modifierExtension</t>
   </si>
   <si>
     <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.requester.agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Individual making the request</t>
+  </si>
+  <si>
+    <t>The device, practitioner or organization who initiated the request.</t>
+  </si>
+  <si>
+    <t>Request.requester.agent</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>who.author</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.requester.onBehalfOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
+    <t>Organization agent is acting for</t>
+  </si>
+  <si>
+    <t>The organization the device or practitioner was acting on behalf of.</t>
+  </si>
+  <si>
+    <t>Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when authoring the request.</t>
+  </si>
+  <si>
+    <t>Request.requester.onBehalfOf</t>
+  </si>
+  <si>
+    <t>.scoper</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.performerType</t>
+  </si>
+  <si>
+    <t>Performer role</t>
+  </si>
+  <si>
+    <t>Desired type of performer for doing the diagnostic testing.</t>
+  </si>
+  <si>
+    <t>this is a  role, not  a participation type.  I.e. does not describe the task, but describes the capacity.  For example, “compounding pharmacy” or “psychiatrist” or “internal referral”.</t>
+  </si>
+  <si>
+    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+  </si>
+  <si>
+    <t>Request.performerType</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=KIND].code</t>
+  </si>
+  <si>
+    <t>who.actor</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
+</t>
+  </si>
+  <si>
+    <t>Requested perfomer</t>
+  </si>
+  <si>
+    <t>The desired perfomer for doing the diagnostic testing.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
+  </si>
+  <si>
+    <t>If needed, use an [extension](extensibility.html) for listing alternative performers and/or roles and/or preference.</t>
+  </si>
+  <si>
+    <t>Request.Performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.reasonCode</t>
+  </si>
+  <si>
+    <t>Explanation/Justification for test</t>
+  </si>
+  <si>
+    <t>An explanation or justification for why this diagnostic investigation is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in supportingInformation.</t>
+  </si>
+  <si>
+    <t>This may be used to decide how the diagnostic investigation will be performed, or even if it will be performed at all.   Use CodeableConcept text element if the data is free (uncoded) text as shown in the [CT Scan example](procedurerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>Diagnosis or problem codes justifying the reason for requesting the procedure or diagnostic investigation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+  </si>
+  <si>
+    <t>Request.reasonCod</t>
+  </si>
+  <si>
+    <t>ORC.16</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+</t>
+  </si>
+  <si>
+    <t>Indicates another resource that provides a justification for why this diagnostic investigation is being requested.   May relate to the resources referred to in supportingInformation.</t>
+  </si>
+  <si>
+    <t>Request.reasonReference</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON].target</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.supportingInfo</t>
+  </si>
+  <si>
+    <t>Ask at order entry question
+AOE</t>
+  </si>
+  <si>
+    <t>Additional clinical information</t>
+  </si>
+  <si>
+    <t>Additional clinical information about the patient or specimen that may influence the procedure or diagnostics or their interpretations.     This information includes diagnosis, clinical findings and other observations.  In laboratory ordering these are typically referred to as "ask at order entry questions (AOEs)".  This includes observations explicitly requested by the producer (filler) to provide context or supporting information needed to complete the order. For example,  reporting the amount of inspired oxygen for blood gas measurements.</t>
+  </si>
+  <si>
+    <t>Request.supportingInformation</t>
+  </si>
+  <si>
+    <t>Accompanying segments</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PERT].target</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Specimen]]}
+</t>
+  </si>
+  <si>
+    <t>Procedure Samples</t>
+  </si>
+  <si>
+    <t>One or more specimens that the laboratory procedure will use.</t>
+  </si>
+  <si>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, If the request is entered first with an unknown specimen, The [Specimen](specimen.html) resource references to the ProcedureRequest.</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SPC].role</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location
+</t>
+  </si>
+  <si>
+    <t>Location on Body</t>
+  </si>
+  <si>
+    <t>Anatomic location where the procedure should be performed. This is the target site.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in the code found in ProcedureRequest.type.  If the use case requires BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [procedurerequest-targetBodySite](extension-procedurerequest-targetbodysite.html).</t>
+  </si>
+  <si>
+    <t>Knowing where the procedure is performed is important for tracking if multiple sites are possible.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>Procedure.targetBodySite</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.bodySite.id</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.bodySite.extension</t>
+  </si>
+  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.meta.security</t>
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
+  </si>
+  <si>
+    <t>relationtolandmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An anatomical landmark that helps determine a body location.</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.bodySite.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding {[]} {[]}
 </t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>recipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Recipient-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Who this request is being addressed to.</t>
-  </si>
-  <si>
-    <t>communicationmethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CommunicationMethod-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>This is the method the provider used to communicate. Examples include: Written, Telephoned, Verbal, Electronically Entered, Policy, Service Correction, Duplicate, etc. 'Code indicating the origin of the prescription.' - NCPDP Telecommunication (Field 419-DJ, Data Dictionary 201104). Possible values include: Written; Telephone; Electronic; Facsimile; Pharmacy; Not Known.</t>
-  </si>
-  <si>
-    <t>partof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.extension.id</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.extension.valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
-</t>
-  </si>
-  <si>
-    <t>Procedure</t>
-  </si>
-  <si>
-    <t>A procedure that has been performed.</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Method-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The technique used to carry out an action, for example, the specific imaging technical or assessment vehicle.</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protocol
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ActivityDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/PlanDefinition]]}
-</t>
-  </si>
-  <si>
-    <t>Protocol or definition</t>
-  </si>
-  <si>
-    <t>Protocol or definition followed by this request.</t>
-  </si>
-  <si>
-    <t>Request.definition</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
-</t>
-  </si>
-  <si>
-    <t>What request fulfills</t>
-  </si>
-  <si>
-    <t>Plan/proposal/order fulfilled by this request.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>ORC.8 (plus others)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.replaces</t>
-  </si>
-  <si>
-    <t>What request replaces</t>
-  </si>
-  <si>
-    <t>The request takes the place of the referenced completed or terminated request(s).</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.requisition</t>
-  </si>
-  <si>
-    <t>grouperId
-groupIdentifier</t>
-  </si>
-  <si>
-    <t>Composite Request ID</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all procedure or diagnostic requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
-  </si>
-  <si>
-    <t>ORC.4</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.status</t>
-  </si>
-  <si>
-    <t>draft | active | suspended | completed | entered-in-error | cancelled</t>
-  </si>
-  <si>
-    <t>The status of the order.</t>
-  </si>
-  <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.
-This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of a procedure or diagnostic order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>ORC.5</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Action.currentStatus</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | order +</t>
-  </si>
-  <si>
-    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>The kind of procedure or diagnostic request</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the ProcedureRequest should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>TQ1.9</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>True if procedure should not be performed</t>
-  </si>
-  <si>
-    <t>Set this to true if the record is saying that the procedure should NOT be performed.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a [modifier](conformance-rules.html#isModifier.html) because it indicates that a procedure shouldn't happen, instead of a request for it to happen.  In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ProcedureRequest.code and ProcedureRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
-  </si>
-  <si>
-    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
-  </si>
-  <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
-  </si>
-  <si>
-    <t>.actionNegationInd</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Classification of procedure</t>
-  </si>
-  <si>
-    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what procedure request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Classification of the procedure</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.code</t>
-  </si>
-  <si>
-    <t>What is being requested/ordered</t>
-  </si>
-  <si>
-    <t>A code that identifies a particular procedure, diagnostic investigation, or panel of investigations, that have been requested.</t>
-  </si>
-  <si>
-    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test ordeer name, for example,  serum or serum/plasma glucose, or a chest xray. The specimen may not be recorded separately from the test code.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
-  </si>
-  <si>
-    <t>Request.code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>Procedure.procedureCode</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group]]}
-</t>
-  </si>
-  <si>
-    <t>Individual the service is ordered for</t>
-  </si>
-  <si>
-    <t>On whom or what the procedure or diagnostic is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
-  </si>
-  <si>
-    <t>Request.subject</t>
-  </si>
-  <si>
-    <t>Accompanying PID segment</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.subject</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encounter
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
-</t>
-  </si>
-  <si>
-    <t>Encounter or Episode during which request was created</t>
-  </si>
-  <si>
-    <t>An encounter or episode of care that provides additional information about the healthcare context in which this request is made.</t>
-  </si>
-  <si>
-    <t>Request.context</t>
-  </si>
-  <si>
-    <t>Accompanying PV1</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.encounter</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.occurrence[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schedule
-</t>
-  </si>
-  <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}Timing {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Timing]]} {[]}</t>
-  </si>
-  <si>
-    <t>When procedure should occur</t>
-  </si>
-  <si>
-    <t>The date/time at which the diagnostic testing should occur.</t>
-  </si>
-  <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>Accompanying TQ1/TQ2 segments</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>when.planned</t>
-  </si>
-  <si>
-    <t>Procedure.procedureSchedule</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>boolean {[]} {[]}
-CodeableConcept {[]} {[]}</t>
-  </si>
-  <si>
-    <t>Preconditions for procedure or diagnostic</t>
-  </si>
-  <si>
-    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the procedure.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
-  </si>
-  <si>
-    <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
-  </si>
-  <si>
-    <t>Proposal.prnReason.reason</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderedOn
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Date request signed</t>
-  </si>
-  <si>
-    <t>When the request transitioned to being actionable.</t>
-  </si>
-  <si>
-    <t>Request.authoredOn</t>
-  </si>
-  <si>
-    <t>ORC.9</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>Proposal.proposedAtTime</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.requester</t>
-  </si>
-  <si>
-    <t>author
-orderer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Who/what is requesting procedure or diagnostic</t>
-  </si>
-  <si>
-    <t>The individual who initiated the request and has responsibility for its activation.</t>
-  </si>
-  <si>
-    <t>This not the dispatcher, but rather who is the authorizer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>ORC.12</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.statementAuthor</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.requester.id</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.requester.extension</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.requester.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.requester.agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
-</t>
-  </si>
-  <si>
-    <t>Individual making the request</t>
-  </si>
-  <si>
-    <t>The device, practitioner or organization who initiated the request.</t>
-  </si>
-  <si>
-    <t>Request.requester.agent</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>who.author</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.requester.onBehalfOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
-</t>
-  </si>
-  <si>
-    <t>Organization agent is acting for</t>
-  </si>
-  <si>
-    <t>The organization the device or practitioner was acting on behalf of.</t>
-  </si>
-  <si>
-    <t>Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when authoring the request.</t>
-  </si>
-  <si>
-    <t>Request.requester.onBehalfOf</t>
-  </si>
-  <si>
-    <t>.scoper</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.performerType</t>
-  </si>
-  <si>
-    <t>Performer role</t>
-  </si>
-  <si>
-    <t>Desired type of performer for doing the diagnostic testing.</t>
-  </si>
-  <si>
-    <t>this is a  role, not  a participation type.  I.e. does not describe the task, but describes the capacity.  For example, “compounding pharmacy” or “psychiatrist” or “internal referral”.</t>
-  </si>
-  <si>
-    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
-  </si>
-  <si>
-    <t>Request.performerType</t>
-  </si>
-  <si>
-    <t>PRT</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=KIND].code</t>
-  </si>
-  <si>
-    <t>who.actor</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
-</t>
-  </si>
-  <si>
-    <t>Requested perfomer</t>
-  </si>
-  <si>
-    <t>The desired perfomer for doing the diagnostic testing.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
-  </si>
-  <si>
-    <t>If needed, use an [extension](extensibility.html) for listing alternative performers and/or roles and/or preference.</t>
-  </si>
-  <si>
-    <t>Request.Performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.reasonCode</t>
-  </si>
-  <si>
-    <t>Explanation/Justification for test</t>
-  </si>
-  <si>
-    <t>An explanation or justification for why this diagnostic investigation is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in supportingInformation.</t>
-  </si>
-  <si>
-    <t>This may be used to decide how the diagnostic investigation will be performed, or even if it will be performed at all.   Use CodeableConcept text element if the data is free (uncoded) text as shown in the [CT Scan example](procedurerequest-example-di.html).</t>
-  </si>
-  <si>
-    <t>Diagnosis or problem codes justifying the reason for requesting the procedure or diagnostic investigation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
-  </si>
-  <si>
-    <t>Request.reasonCod</t>
-  </si>
-  <si>
-    <t>ORC.16</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
-</t>
-  </si>
-  <si>
-    <t>Indicates another resource that provides a justification for why this diagnostic investigation is being requested.   May relate to the resources referred to in supportingInformation.</t>
-  </si>
-  <si>
-    <t>Request.reasonReference</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON].target</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.supportingInfo</t>
-  </si>
-  <si>
-    <t>Ask at order entry question
-AOE</t>
-  </si>
-  <si>
-    <t>Additional clinical information</t>
-  </si>
-  <si>
-    <t>Additional clinical information about the patient or specimen that may influence the procedure or diagnostics or their interpretations.     This information includes diagnosis, clinical findings and other observations.  In laboratory ordering these are typically referred to as "ask at order entry questions (AOEs)".  This includes observations explicitly requested by the producer (filler) to provide context or supporting information needed to complete the order. For example,  reporting the amount of inspired oxygen for blood gas measurements.</t>
-  </si>
-  <si>
-    <t>Request.supportingInformation</t>
-  </si>
-  <si>
-    <t>Accompanying segments</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PERT].target</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Specimen]]}
-</t>
-  </si>
-  <si>
-    <t>Procedure Samples</t>
-  </si>
-  <si>
-    <t>One or more specimens that the laboratory procedure will use.</t>
-  </si>
-  <si>
-    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, If the request is entered first with an unknown specimen, The [Specimen](specimen.html) resource references to the ProcedureRequest.</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SPC].role</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.bodySite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location
-</t>
-  </si>
-  <si>
-    <t>Location on Body</t>
-  </si>
-  <si>
-    <t>Anatomic location where the procedure should be performed. This is the target site.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in the code found in ProcedureRequest.type.  If the use case requires BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [procedurerequest-targetBodySite](extension-procedurerequest-targetbodysite.html).</t>
-  </si>
-  <si>
-    <t>Knowing where the procedure is performed is important for tracking if multiple sites are possible.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>Procedure.targetBodySite</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.bodySite.id</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.bodySite.extension</t>
-  </si>
-  <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
-  </si>
-  <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
-  </si>
-  <si>
-    <t>relationtolandmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An anatomical landmark that helps determine a body location.</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.bodySite.coding</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -1557,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2083,10 +2001,10 @@
         <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>66</v>
@@ -2097,7 +2015,9 @@
       <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>44</v>
@@ -2146,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -2167,7 +2087,7 @@
         <v>44</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>44</v>
@@ -2182,14 +2102,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>44</v>
@@ -2201,16 +2121,16 @@
         <v>44</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2236,37 +2156,37 @@
         <v>44</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>44</v>
@@ -2281,7 +2201,7 @@
         <v>44</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>44</v>
@@ -2292,11 +2212,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2312,19 +2232,19 @@
         <v>44</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2373,13 +2293,17 @@
       <c r="AD7" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>44</v>
@@ -2391,7 +2315,7 @@
         <v>44</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>44</v>
@@ -2402,18 +2326,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>44</v>
@@ -2422,19 +2346,19 @@
         <v>44</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2483,11 +2407,15 @@
       <c r="AD8" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>44</v>
       </c>
@@ -2501,7 +2429,7 @@
         <v>44</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>44</v>
@@ -2512,11 +2440,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2532,19 +2460,19 @@
         <v>44</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2582,22 +2510,24 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>44</v>
       </c>
@@ -2611,7 +2541,7 @@
         <v>44</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>44</v>
@@ -2622,9 +2552,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>44</v>
       </c>
@@ -2633,7 +2565,7 @@
         <v>42</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>44</v>
@@ -2642,20 +2574,16 @@
         <v>44</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>44</v>
@@ -2680,13 +2608,13 @@
         <v>44</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>44</v>
@@ -2703,11 +2631,15 @@
       <c r="AD10" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>44</v>
       </c>
@@ -2732,9 +2664,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>44</v>
       </c>
@@ -2743,7 +2677,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>44</v>
@@ -2752,20 +2686,16 @@
         <v>44</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2790,13 +2720,13 @@
         <v>44</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>44</v>
@@ -2813,11 +2743,15 @@
       <c r="AD11" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>44</v>
       </c>
@@ -2842,9 +2776,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>44</v>
       </c>
@@ -2859,23 +2795,19 @@
         <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="K12" s="2"/>
       <c r="L12" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2924,13 +2856,13 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>44</v>
@@ -2987,9 +2919,7 @@
       <c r="L13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>119</v>
-      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>44</v>
@@ -3014,13 +2944,13 @@
         <v>44</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>44</v>
@@ -3038,7 +2968,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -3059,7 +2989,7 @@
         <v>44</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>44</v>
@@ -3070,18 +3000,18 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>44</v>
@@ -3093,17 +3023,15 @@
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3152,16 +3080,16 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>44</v>
@@ -3173,7 +3101,7 @@
         <v>44</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>44</v>
@@ -3184,18 +3112,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>44</v>
@@ -3207,24 +3135,22 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>44</v>
@@ -3266,13 +3192,13 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>44</v>
@@ -3287,7 +3213,7 @@
         <v>44</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>44</v>
@@ -3298,18 +3224,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>44</v>
@@ -3321,17 +3247,15 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3368,23 +3292,25 @@
         <v>44</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>44</v>
@@ -3399,7 +3325,7 @@
         <v>44</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>44</v>
@@ -3410,10 +3336,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>44</v>
@@ -3435,11 +3361,11 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3490,7 +3416,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3522,10 +3448,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>44</v>
@@ -3547,11 +3473,11 @@
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3602,7 +3528,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3636,36 +3562,38 @@
       <c r="A19" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="L19" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3714,7 +3642,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3735,7 +3663,7 @@
         <v>44</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>44</v>
@@ -3746,7 +3674,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3757,7 +3685,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>44</v>
@@ -3766,18 +3694,20 @@
         <v>44</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3825,15 +3755,11 @@
       <c r="AD20" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE20" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>53</v>
-      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" t="s" s="2">
         <v>44</v>
       </c>
@@ -3841,35 +3767,35 @@
         <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>44</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>44</v>
@@ -3878,16 +3804,16 @@
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3937,15 +3863,11 @@
       <c r="AD21" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE21" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
         <v>44</v>
       </c>
@@ -3953,13 +3875,13 @@
         <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>44</v>
@@ -3970,18 +3892,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>44</v>
@@ -3990,16 +3912,16 @@
         <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4008,7 +3930,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>44</v>
@@ -4049,15 +3971,11 @@
       <c r="AD22" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE22" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>53</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
         <v>44</v>
       </c>
@@ -4065,13 +3983,13 @@
         <v>44</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4082,7 +4000,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4090,10 +4008,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -4102,16 +4020,16 @@
         <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4161,15 +4079,11 @@
       <c r="AD23" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE23" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>53</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4177,13 +4091,13 @@
         <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
@@ -4194,13 +4108,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4216,17 +4128,23 @@
         <v>44</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="K24" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="L24" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4273,15 +4191,11 @@
       <c r="AD24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE24" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4292,10 +4206,10 @@
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
@@ -4306,17 +4220,15 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>53</v>
@@ -4325,19 +4237,23 @@
         <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="K25" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="L25" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4362,13 +4278,13 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4385,15 +4301,11 @@
       <c r="AD25" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE25" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG25" s="2"/>
       <c r="AH25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4401,35 +4313,35 @@
         <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>44</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
@@ -4438,19 +4350,19 @@
         <v>54</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4476,13 +4388,13 @@
         <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>44</v>
@@ -4499,15 +4411,11 @@
       <c r="AD26" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE26" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG26" s="2"/>
       <c r="AH26" t="s" s="2">
         <v>44</v>
       </c>
@@ -4515,16 +4423,16 @@
         <v>44</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4532,7 +4440,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4543,7 +4451,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
@@ -4555,22 +4463,22 @@
         <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="Q27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4590,13 +4498,13 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -4625,58 +4533,62 @@
         <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>185</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -4721,11 +4633,15 @@
       <c r="AD28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE28" s="2"/>
+      <c r="AE28" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG28" s="2"/>
+      <c r="AG28" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH28" t="s" s="2">
         <v>44</v>
       </c>
@@ -4733,13 +4649,13 @@
         <v>44</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>44</v>
@@ -4750,18 +4666,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
@@ -4773,16 +4689,20 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4806,13 +4726,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -4829,11 +4749,15 @@
       <c r="AD29" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE29" s="2"/>
+      <c r="AE29" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG29" s="2"/>
+      <c r="AG29" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4841,16 +4765,16 @@
         <v>44</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4858,7 +4782,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4866,10 +4790,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
@@ -4881,15 +4805,17 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4914,13 +4840,11 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -4949,32 +4873,32 @@
         <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>53</v>
@@ -4989,20 +4913,16 @@
         <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>44</v>
       </c>
@@ -5049,11 +4969,15 @@
       <c r="AD31" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE31" s="2"/>
+      <c r="AE31" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="AF31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG31" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
       </c>
@@ -5061,32 +4985,32 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>44</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>53</v>
@@ -5095,23 +5019,21 @@
         <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5136,13 +5058,13 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -5171,32 +5093,32 @@
         <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>53</v>
@@ -5205,23 +5127,21 @@
         <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5246,13 +5166,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5281,24 +5201,24 @@
         <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>44</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5321,22 +5241,20 @@
         <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P34" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5356,13 +5274,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5391,62 +5309,58 @@
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>44</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -5491,15 +5405,11 @@
       <c r="AD35" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>53</v>
-      </c>
+      <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5507,28 +5417,28 @@
         <v>44</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>44</v>
+        <v>286</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>44</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5547,20 +5457,18 @@
         <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5584,13 +5492,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5607,40 +5515,36 @@
       <c r="AD36" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE36" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5648,7 +5552,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>53</v>
@@ -5660,20 +5564,18 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5698,11 +5600,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -5719,11 +5623,15 @@
       <c r="AD37" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE37" s="2"/>
+      <c r="AE37" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG37" s="2"/>
+      <c r="AG37" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5731,35 +5639,35 @@
         <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>271</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -5768,18 +5676,20 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>100</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5828,13 +5738,13 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
@@ -5843,55 +5753,57 @@
         <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>280</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>141</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5939,11 +5851,15 @@
       <c r="AD39" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
       </c>
@@ -5951,32 +5867,32 @@
         <v>44</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>286</v>
+        <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>288</v>
+        <v>96</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>290</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>53</v>
@@ -5991,13 +5907,13 @@
         <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6059,24 +5975,24 @@
         <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="AL40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6099,16 +6015,18 @@
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6132,13 +6050,13 @@
         <v>44</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>44</v>
@@ -6167,28 +6085,28 @@
         <v>44</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>308</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6207,15 +6125,17 @@
         <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6240,13 +6160,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6275,28 +6195,28 @@
         <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6315,16 +6235,16 @@
         <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6382,27 +6302,27 @@
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>329</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6422,18 +6342,20 @@
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>67</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6458,13 +6380,13 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>44</v>
+        <v>342</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6482,13 +6404,13 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>69</v>
+        <v>338</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6497,16 +6419,16 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>70</v>
+        <v>346</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6514,18 +6436,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
@@ -6534,19 +6456,19 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>73</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6596,7 +6518,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6611,16 +6533,16 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>44</v>
+        <v>351</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>70</v>
+        <v>352</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6628,11 +6550,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6645,23 +6567,21 @@
         <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>173</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6709,15 +6629,11 @@
       <c r="AD46" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE46" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
@@ -6725,13 +6641,13 @@
         <v>44</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>44</v>
+        <v>358</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>139</v>
+        <v>359</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -6742,7 +6658,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6750,10 +6666,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -6765,15 +6681,17 @@
         <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6833,35 +6751,35 @@
         <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>342</v>
+        <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>329</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>44</v>
+        <v>368</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -6873,17 +6791,19 @@
         <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>344</v>
+        <v>223</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -6908,13 +6828,11 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -6943,24 +6861,24 @@
         <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>44</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6980,20 +6898,18 @@
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>351</v>
+        <v>117</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7018,13 +6934,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>354</v>
+        <v>44</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7041,11 +6957,15 @@
       <c r="AD49" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE49" s="2"/>
+      <c r="AE49" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG49" s="2"/>
+      <c r="AG49" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7053,16 +6973,16 @@
         <v>44</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7070,18 +6990,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>44</v>
@@ -7090,19 +7010,19 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>361</v>
+        <v>99</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>362</v>
+        <v>100</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>364</v>
+        <v>102</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7140,22 +7060,26 @@
         <v>44</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE50" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7163,16 +7087,16 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7180,9 +7104,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7191,7 +7117,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7200,20 +7126,16 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="K51" s="2"/>
       <c r="L51" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7238,13 +7160,13 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>371</v>
+        <v>44</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>372</v>
+        <v>44</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7262,7 +7184,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>367</v>
+        <v>123</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7277,16 +7199,16 @@
         <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>373</v>
+        <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>375</v>
+        <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>376</v>
+        <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7294,9 +7216,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="C52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7305,7 +7229,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7314,20 +7238,16 @@
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="K52" s="2"/>
       <c r="L52" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7376,7 +7296,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>377</v>
+        <v>123</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7391,16 +7311,16 @@
         <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>380</v>
+        <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>381</v>
+        <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>376</v>
+        <v>44</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7408,11 +7328,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="C53" t="s" s="2">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7431,13 +7353,11 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="K53" s="2"/>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7487,11 +7407,15 @@
       <c r="AD53" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE53" s="2"/>
+      <c r="AE53" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG53" s="2"/>
+      <c r="AG53" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7499,13 +7423,13 @@
         <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7550,7 +7474,9 @@
       <c r="M54" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7612,10 +7538,10 @@
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -7626,18 +7552,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -7649,7 +7575,7 @@
         <v>54</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>398</v>
@@ -7686,11 +7612,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>403</v>
+        <v>44</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -7722,21 +7650,21 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>405</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7747,7 +7675,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
@@ -7759,13 +7687,13 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>66</v>
+        <v>405</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>68</v>
+        <v>406</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7815,15 +7743,11 @@
       <c r="AD56" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE56" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="AE56" s="2"/>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>53</v>
-      </c>
+      <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
         <v>44</v>
       </c>
@@ -7831,28 +7755,28 @@
         <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>44</v>
+        <v>408</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>70</v>
+        <v>409</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>44</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7871,16 +7795,16 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>73</v>
+        <v>412</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>75</v>
+        <v>414</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>76</v>
+        <v>415</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7918,26 +7842,22 @@
         <v>44</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AE57" s="2"/>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG57" s="2"/>
       <c r="AH57" t="s" s="2">
         <v>44</v>
       </c>
@@ -7945,801 +7865,23 @@
         <v>44</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>44</v>
+        <v>416</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>70</v>
+        <v>417</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="K58" s="2"/>
-      <c r="L58" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="K59" s="2"/>
-      <c r="L59" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="K60" s="2"/>
-      <c r="L60" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE61" s="2"/>
-      <c r="AF61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG61" s="2"/>
-      <c r="AH61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE62" s="2"/>
-      <c r="AF62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG62" s="2"/>
-      <c r="AH62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE63" s="2"/>
-      <c r="AF63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG63" s="2"/>
-      <c r="AH63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE64" s="2"/>
-      <c r="AF64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG64" s="2"/>
-      <c r="AH64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN64" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN64">
+  <autoFilter ref="A1:AN57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8749,7 +7891,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-ProcedureRequest.xlsx
+++ b/docs/odh/shr-core-ProcedureRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="482">
   <si>
     <t>Path</t>
   </si>
@@ -216,13 +216,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>ProcedureRequest.implicitRules</t>
+    <t>ProcedureRequest.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -252,9 +401,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -323,140 +469,216 @@
     <t>ProcedureRequest.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>servicebasedon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ServiceBasedOn-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>The original or initiating plan, proposal, or request.</t>
+  </si>
+  <si>
+    <t>replaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Replaces-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>recipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Recipient-extension]]} {[]}
+    <t>Request(s) replaced by this request</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.extension.id</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Replaces-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ServiceRequest]]}
 </t>
   </si>
   <si>
-    <t>Who this request is being addressed to.</t>
-  </si>
-  <si>
-    <t>communicationmethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CommunicationMethod-extension]]} {[]}
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>groupidentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-GroupIdentifier-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>This is the method the provider used to communicate. Examples include: Written, Telephoned, Verbal, Electronically Entered, Policy, Service Correction, Duplicate, etc. 'Code indicating the origin of the prescription.' - NCPDP Telecommunication (Field 419-DJ, Data Dictionary 201104). Possible values include: Written; Telephone; Electronic; Facsimile; Pharmacy; Not Known.</t>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>donotperform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DoNotPerform-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A flag, when set to true, indicates that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>servicedetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ServiceDetails-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A service requested or performed. Additional details and instructions about the service requested or performed. For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
+  </si>
+  <si>
+    <t>requestquantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RequestQuantity-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
+  </si>
+  <si>
+    <t>asneeded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-AsNeeded-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Preconditions for service, either 'true' indicating to be performed if needed, or a code indicating the pre-condition for performing the service. For example 'pain', 'on flare-up', etc.</t>
+  </si>
+  <si>
+    <t>locationtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LocationType-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The preferred type of location(s) where the service should happen, in coded or free text form, e.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Insurance-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
+  </si>
+  <si>
+    <t>supportinginformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SupportingInformation-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional information to support this request.</t>
+  </si>
+  <si>
+    <t>specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Specimen-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A specimen is a substance, physical object, or collection of objects, that the laboratory considers a single discrete, uniquely identified unit that is the subject of one or more steps in the laboratory workflow. A specimen may include multiple physical pieces as long as they are considered a single unit within the laboratory workflow. A specimen results from one to many specimen collection procedures, and may be contained in multiple specimen containers. Specimen may have one or more processing activities.</t>
+  </si>
+  <si>
+    <t>patientinstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PatientInstruction-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Patient or consumer-oriented instructions.</t>
   </si>
   <si>
     <t>partof</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PartOf-extension]]} {[]}
 </t>
   </si>
   <si>
     <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
   </si>
   <si>
-    <t>ProcedureRequest.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Procedure]]}
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.extension.valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>An action that is or was performed on or for a patient. This can be a physical intervention like an operation, or less invasive like long term services, counseling, or hypnotherapy.</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Method-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Procedure</t>
-  </si>
-  <si>
-    <t>A procedure that has been performed.</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Method-extension]]} {[]}
-</t>
-  </si>
-  <si>
     <t>The technique used to carry out an action, for example, the specific imaging technical or assessment vehicle.</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
   </si>
   <si>
     <t>ProcedureRequest.modifierExtension</t>
@@ -732,9 +954,6 @@
     <t>Used for filtering what procedure request are retrieved and displayed.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Classification of the procedure</t>
   </si>
   <si>
@@ -774,7 +993,7 @@
     <t>ProcedureRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Group], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
@@ -806,7 +1025,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -839,7 +1058,7 @@
   </si>
   <si>
     <t>dateTime {[]} {[]}
-Period {[]} {[]}Timing {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Timing]]} {[]}</t>
+Period {[]} {[]}Timing {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Timing]]} {[]}</t>
   </si>
   <si>
     <t>When procedure should occur</t>
@@ -959,13 +1178,7 @@
     <t>ProcedureRequest.requester.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ProcedureRequest.requester.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>ProcedureRequest.requester.modifierExtension</t>
@@ -984,7 +1197,7 @@
     <t>ProcedureRequest.requester.agent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner]]}
 </t>
   </si>
   <si>
@@ -1058,7 +1271,7 @@
     <t>ProcedureRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson]]}
 </t>
   </si>
   <si>
@@ -1110,7 +1323,7 @@
     <t>ProcedureRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
@@ -1189,7 +1402,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
   </si>
   <si>
     <t>targetSiteCode</t>
@@ -1204,46 +1417,63 @@
     <t>ProcedureRequest.bodySite.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Laterality-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>orientation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Orientation-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>relationtolandmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>An anatomical landmark that helps determine a body location.</t>
+    <t>The relationship between a landmark that helps determine a body location and the body location itself. The location relative to a landmark is specified by:
+* Specifying the location and type of landmark using a body site code and optional laterality/orientation,
+* Specifying the direction from the landmark to the body location, and
+* Specifying the distance from the landmark to the body location.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>ProcedureRequest.bodySite.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -1286,7 +1516,7 @@
     <t>ProcedureRequest.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Annotation]]} {[]}
+    <t xml:space="preserve">Annotation {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation]]} {[]}
 </t>
   </si>
   <si>
@@ -1475,7 +1705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1485,7 +1715,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.3515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1508,7 +1738,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="122.19921875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.23046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.6171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -2001,10 +2231,10 @@
         <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>66</v>
@@ -2015,9 +2245,7 @@
       <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>44</v>
@@ -2066,7 +2294,7 @@
         <v>44</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -2087,7 +2315,7 @@
         <v>44</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>44</v>
@@ -2102,14 +2330,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>44</v>
@@ -2121,16 +2349,16 @@
         <v>44</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2156,37 +2384,37 @@
         <v>44</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>44</v>
@@ -2201,7 +2429,7 @@
         <v>44</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>44</v>
@@ -2212,11 +2440,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2237,15 +2467,11 @@
       <c r="J7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>44</v>
@@ -2294,16 +2520,16 @@
         <v>44</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>44</v>
@@ -2315,7 +2541,7 @@
         <v>44</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>44</v>
@@ -2326,18 +2552,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>44</v>
@@ -2346,19 +2572,19 @@
         <v>44</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2407,15 +2633,11 @@
       <c r="AD8" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>95</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>44</v>
       </c>
@@ -2429,7 +2651,7 @@
         <v>44</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>44</v>
@@ -2440,18 +2662,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>44</v>
@@ -2460,19 +2682,19 @@
         <v>44</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2510,24 +2732,22 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>44</v>
       </c>
@@ -2541,7 +2761,7 @@
         <v>44</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>44</v>
@@ -2552,11 +2772,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>44</v>
       </c>
@@ -2565,7 +2783,7 @@
         <v>42</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>44</v>
@@ -2574,16 +2792,20 @@
         <v>44</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>44</v>
@@ -2631,15 +2853,11 @@
       <c r="AD10" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>44</v>
       </c>
@@ -2664,11 +2882,9 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>44</v>
       </c>
@@ -2677,7 +2893,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>44</v>
@@ -2686,16 +2902,20 @@
         <v>44</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2720,13 +2940,13 @@
         <v>44</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>44</v>
@@ -2743,15 +2963,11 @@
       <c r="AD11" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>44</v>
       </c>
@@ -2776,11 +2992,9 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>44</v>
       </c>
@@ -2789,7 +3003,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
@@ -2798,16 +3012,20 @@
         <v>44</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2832,13 +3050,13 @@
         <v>44</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>44</v>
@@ -2855,15 +3073,11 @@
       <c r="AD12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>44</v>
       </c>
@@ -2888,7 +3102,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2905,21 +3119,23 @@
         <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>44</v>
@@ -2968,7 +3184,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2989,7 +3205,7 @@
         <v>44</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>44</v>
@@ -3000,7 +3216,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3011,7 +3227,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>44</v>
@@ -3023,15 +3239,17 @@
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3056,13 +3274,13 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>44</v>
@@ -3080,13 +3298,13 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>44</v>
@@ -3112,15 +3330,15 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>53</v>
@@ -3135,22 +3353,24 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>44</v>
@@ -3192,16 +3412,16 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>53</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>44</v>
@@ -3213,7 +3433,7 @@
         <v>44</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>44</v>
@@ -3224,18 +3444,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>44</v>
@@ -3247,15 +3467,17 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3304,13 +3526,13 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>44</v>
@@ -3325,7 +3547,7 @@
         <v>44</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>44</v>
@@ -3336,20 +3558,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
@@ -3361,13 +3581,17 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3404,19 +3628,17 @@
         <v>44</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3437,7 +3659,7 @@
         <v>44</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>44</v>
@@ -3448,10 +3670,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>44</v>
@@ -3461,7 +3683,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>44</v>
@@ -3473,11 +3695,11 @@
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3528,7 +3750,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3560,11 +3782,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3577,23 +3801,19 @@
         <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3642,7 +3862,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3663,7 +3883,7 @@
         <v>44</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>44</v>
@@ -3674,7 +3894,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3685,7 +3905,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>44</v>
@@ -3694,20 +3914,18 @@
         <v>44</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3755,11 +3973,15 @@
       <c r="AD20" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE20" s="2"/>
+      <c r="AE20" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH20" t="s" s="2">
         <v>44</v>
       </c>
@@ -3767,35 +3989,35 @@
         <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>153</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>44</v>
@@ -3804,16 +4026,16 @@
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3863,11 +4085,15 @@
       <c r="AD21" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE21" s="2"/>
+      <c r="AE21" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH21" t="s" s="2">
         <v>44</v>
       </c>
@@ -3875,13 +4101,13 @@
         <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>44</v>
@@ -3892,18 +4118,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>44</v>
@@ -3912,16 +4138,16 @@
         <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3930,7 +4156,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>44</v>
@@ -3971,11 +4197,15 @@
       <c r="AD22" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE22" s="2"/>
+      <c r="AE22" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="AF22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG22" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH22" t="s" s="2">
         <v>44</v>
       </c>
@@ -3983,13 +4213,13 @@
         <v>44</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4000,7 +4230,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4008,10 +4238,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -4020,16 +4250,16 @@
         <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4079,11 +4309,15 @@
       <c r="AD23" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE23" s="2"/>
+      <c r="AE23" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG23" s="2"/>
+      <c r="AG23" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4091,13 +4325,13 @@
         <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
@@ -4108,11 +4342,13 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="C24" t="s" s="2">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4128,23 +4364,17 @@
         <v>44</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="L24" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4191,11 +4421,15 @@
       <c r="AD24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG24" s="2"/>
+      <c r="AG24" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4206,10 +4440,10 @@
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
@@ -4220,15 +4454,17 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>53</v>
@@ -4237,23 +4473,19 @@
         <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4278,13 +4510,13 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4301,11 +4533,15 @@
       <c r="AD25" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE25" s="2"/>
+      <c r="AE25" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG25" s="2"/>
+      <c r="AG25" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4313,57 +4549,55 @@
         <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>195</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4388,13 +4622,13 @@
         <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>44</v>
@@ -4411,11 +4645,15 @@
       <c r="AD26" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE26" s="2"/>
+      <c r="AE26" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG26" s="2"/>
+      <c r="AG26" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
       </c>
@@ -4423,16 +4661,16 @@
         <v>44</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4440,9 +4678,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4460,25 +4700,21 @@
         <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="K27" s="2"/>
       <c r="L27" t="s" s="2">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P27" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4498,13 +4734,13 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -4521,11 +4757,15 @@
       <c r="AD27" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE27" s="2"/>
+      <c r="AE27" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG27" s="2"/>
+      <c r="AG27" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4533,16 +4773,16 @@
         <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4550,9 +4790,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>44</v>
       </c>
@@ -4561,34 +4803,28 @@
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="L28" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -4634,13 +4870,13 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>44</v>
@@ -4655,7 +4891,7 @@
         <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>44</v>
@@ -4666,9 +4902,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4677,7 +4915,7 @@
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
@@ -4686,23 +4924,17 @@
         <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="K29" s="2"/>
       <c r="L29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4726,13 +4958,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -4750,7 +4982,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4771,10 +5003,10 @@
         <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4782,18 +5014,20 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
@@ -4802,20 +5036,16 @@
         <v>44</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="K30" s="2"/>
       <c r="L30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4840,11 +5070,13 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -4861,11 +5093,15 @@
       <c r="AD30" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE30" s="2"/>
+      <c r="AE30" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG30" s="2"/>
+      <c r="AG30" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
       </c>
@@ -4873,35 +5109,37 @@
         <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>240</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -4910,16 +5148,14 @@
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K31" s="2"/>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4970,13 +5206,13 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
@@ -4985,35 +5221,37 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>249</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="C32" t="s" s="2">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>44</v>
@@ -5022,16 +5260,14 @@
         <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="K32" s="2"/>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5081,11 +5317,15 @@
       <c r="AD32" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE32" s="2"/>
+      <c r="AE32" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG32" s="2"/>
+      <c r="AG32" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5093,35 +5333,37 @@
         <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>259</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="C33" t="s" s="2">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>44</v>
@@ -5130,16 +5372,14 @@
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="K33" s="2"/>
       <c r="L33" t="s" s="2">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5189,11 +5429,15 @@
       <c r="AD33" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE33" s="2"/>
+      <c r="AE33" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG33" s="2"/>
+      <c r="AG33" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5201,26 +5445,28 @@
         <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5238,16 +5484,14 @@
         <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="K34" s="2"/>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5274,13 +5518,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5297,11 +5541,15 @@
       <c r="AD34" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE34" s="2"/>
+      <c r="AE34" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG34" s="2"/>
+      <c r="AG34" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5315,22 +5563,24 @@
         <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>277</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="C35" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5346,16 +5596,14 @@
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="K35" s="2"/>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5405,11 +5653,15 @@
       <c r="AD35" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE35" s="2"/>
+      <c r="AE35" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG35" s="2"/>
+      <c r="AG35" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5417,28 +5669,28 @@
         <v>44</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>286</v>
+        <v>44</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>287</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5454,20 +5706,18 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>290</v>
+        <v>66</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>291</v>
+        <v>67</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5515,36 +5765,40 @@
       <c r="AD36" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE36" s="2"/>
+      <c r="AE36" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG36" s="2"/>
+      <c r="AG36" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>297</v>
+        <v>142</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>153</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5555,7 +5809,7 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -5567,13 +5821,13 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5624,13 +5878,13 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
@@ -5645,7 +5899,7 @@
         <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -5656,18 +5910,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>156</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -5679,24 +5933,22 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>44</v>
@@ -5738,13 +5990,13 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
@@ -5759,7 +6011,7 @@
         <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>300</v>
+        <v>142</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -5770,40 +6022,38 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>161</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>304</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5852,13 +6102,13 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>306</v>
+        <v>165</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
@@ -5873,7 +6123,7 @@
         <v>44</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -5884,15 +6134,17 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>53</v>
@@ -5904,16 +6156,14 @@
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="K40" s="2"/>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5963,11 +6213,15 @@
       <c r="AD40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
       </c>
@@ -5975,58 +6229,58 @@
         <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>311</v>
+        <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>209</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>316</v>
+        <v>210</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6073,11 +6327,15 @@
       <c r="AD41" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6085,13 +6343,13 @@
         <v>44</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>320</v>
+        <v>142</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6102,7 +6360,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>213</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6113,7 +6371,7 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
@@ -6125,16 +6383,16 @@
         <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
+        <v>216</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>324</v>
+        <v>217</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6160,13 +6418,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6195,35 +6453,35 @@
         <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>328</v>
+        <v>219</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>330</v>
+        <v>221</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>223</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6235,17 +6493,15 @@
         <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>332</v>
+        <v>225</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>333</v>
+        <v>226</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6305,16 +6561,16 @@
         <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>336</v>
+        <v>228</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>328</v>
+        <v>229</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>337</v>
+        <v>230</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6322,18 +6578,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>231</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>44</v>
@@ -6345,17 +6601,15 @@
         <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6380,13 +6634,13 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>342</v>
+        <v>44</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6403,15 +6657,11 @@
       <c r="AD44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE44" t="s" s="2">
-        <v>338</v>
-      </c>
+      <c r="AE44" s="2"/>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6419,16 +6669,16 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>344</v>
+        <v>236</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>345</v>
+        <v>237</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>346</v>
+        <v>238</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6436,7 +6686,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>239</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6447,7 +6697,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
@@ -6459,17 +6709,15 @@
         <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6517,15 +6765,11 @@
       <c r="AD45" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE45" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6533,16 +6777,16 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>351</v>
+        <v>242</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>345</v>
+        <v>243</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>352</v>
+        <v>244</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6550,18 +6794,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>245</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>354</v>
+        <v>246</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -6570,19 +6814,23 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -6641,13 +6889,13 @@
         <v>44</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>358</v>
+        <v>251</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>359</v>
+        <v>252</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -6658,7 +6906,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>253</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6666,31 +6914,31 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>361</v>
+        <v>119</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>255</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>364</v>
+        <v>256</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6716,13 +6964,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -6751,60 +6999,58 @@
         <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>365</v>
+        <v>261</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>366</v>
+        <v>262</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>265</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>368</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>369</v>
+        <v>266</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>267</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -6828,11 +7074,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -6861,24 +7109,24 @@
         <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>376</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>274</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6898,23 +7146,25 @@
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>117</v>
+        <v>275</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>118</v>
+        <v>276</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>44</v>
       </c>
@@ -6934,13 +7184,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -6957,15 +7207,11 @@
       <c r="AD49" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE49" t="s" s="2">
-        <v>119</v>
-      </c>
+      <c r="AE49" s="2"/>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>53</v>
-      </c>
+      <c r="AG49" s="2"/>
       <c r="AH49" t="s" s="2">
         <v>44</v>
       </c>
@@ -6973,16 +7219,16 @@
         <v>44</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -6990,43 +7236,45 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>283</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
@@ -7060,25 +7308,25 @@
         <v>44</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
@@ -7093,7 +7341,7 @@
         <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7104,11 +7352,9 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7117,7 +7363,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7126,17 +7372,23 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="K51" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7160,13 +7412,13 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7184,7 +7436,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7205,10 +7457,10 @@
         <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7216,20 +7468,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7238,16 +7488,20 @@
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="K52" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7272,13 +7526,11 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>44</v>
@@ -7295,15 +7547,11 @@
       <c r="AD52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE52" t="s" s="2">
-        <v>123</v>
-      </c>
+      <c r="AE52" s="2"/>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7311,37 +7559,35 @@
         <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7350,14 +7596,16 @@
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K53" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7408,13 +7656,13 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7423,35 +7671,35 @@
         <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>318</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -7463,20 +7711,16 @@
         <v>54</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>391</v>
+        <v>321</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7535,28 +7779,28 @@
         <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>396</v>
+        <v>325</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>328</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7575,20 +7819,16 @@
         <v>54</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>116</v>
+        <v>330</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7647,24 +7887,24 @@
         <v>44</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>402</v>
+        <v>334</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>403</v>
+        <v>335</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7675,7 +7915,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
@@ -7684,16 +7924,16 @@
         <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>405</v>
+        <v>339</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7720,13 +7960,13 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>44</v>
+        <v>342</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -7755,35 +7995,35 @@
         <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>408</v>
+        <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>410</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>346</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -7792,20 +8032,18 @@
         <v>44</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>412</v>
+        <v>348</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>413</v>
+        <v>349</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -7865,23 +8103,2471 @@
         <v>44</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE58" s="2"/>
+      <c r="AF58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG58" s="2"/>
+      <c r="AH58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE62" s="2"/>
+      <c r="AF62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG62" s="2"/>
+      <c r="AH62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE63" s="2"/>
+      <c r="AF63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG63" s="2"/>
+      <c r="AH63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE64" s="2"/>
+      <c r="AF64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG64" s="2"/>
+      <c r="AH64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE65" s="2"/>
+      <c r="AF65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG65" s="2"/>
+      <c r="AH65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="M67" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AM57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AK67" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE68" s="2"/>
+      <c r="AF68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG68" s="2"/>
+      <c r="AH68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE69" s="2"/>
+      <c r="AF69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG69" s="2"/>
+      <c r="AH69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="X70" s="2"/>
+      <c r="Y70" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE70" s="2"/>
+      <c r="AF70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG70" s="2"/>
+      <c r="AH70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K73" s="2"/>
+      <c r="L73" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="L74" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K75" s="2"/>
+      <c r="L75" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" s="2"/>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" s="2"/>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" s="2"/>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" s="2"/>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE78" s="2"/>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" s="2"/>
+      <c r="AH78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE79" s="2"/>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" s="2"/>
+      <c r="AH79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN57">
+  <autoFilter ref="A1:AN79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7891,7 +10577,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
